--- a/performances.xlsx
+++ b/performances.xlsx
@@ -176,7 +176,7 @@
     <t>歌曲《掌声响起来》</t>
   </si>
   <si>
-    <t>王芯语、于跃彤</t>
+    <t>王心怡、于跃彤</t>
   </si>
   <si>
     <t>歌曲《鲁冰花》</t>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="14.25" outlineLevelCol="3"/>

--- a/performances.xlsx
+++ b/performances.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="95">
   <si>
     <t>序号</t>
   </si>
@@ -77,9 +77,6 @@
     <t>歌曲《推开世界的门》</t>
   </si>
   <si>
-    <t>舞蹈《余生摇》</t>
-  </si>
-  <si>
     <t>歌曲《海阔天空》</t>
   </si>
   <si>
@@ -116,30 +113,27 @@
     <t>歌曲《特别的人》</t>
   </si>
   <si>
+    <t>史亚男、宋欣媛等</t>
+  </si>
+  <si>
+    <t>歌曲《你是人间四月天》</t>
+  </si>
+  <si>
+    <t>朱鑫磊、李芷萱等</t>
+  </si>
+  <si>
+    <t>歌曲《我为爱情掉过几滴泪》</t>
+  </si>
+  <si>
+    <t>路鑫宇、王紫仪等</t>
+  </si>
+  <si>
+    <t>歌曲《春泥》</t>
+  </si>
+  <si>
     <t>史依涵、王艺晗等</t>
   </si>
   <si>
-    <t>舞蹈《达摩进行曲》</t>
-  </si>
-  <si>
-    <t>史亚男、宋欣媛等</t>
-  </si>
-  <si>
-    <t>歌曲《你是人间四月天》</t>
-  </si>
-  <si>
-    <t>朱鑫磊、李芷萱等</t>
-  </si>
-  <si>
-    <t>歌曲《我为爱情掉过几滴泪》</t>
-  </si>
-  <si>
-    <t>路鑫宇、王紫仪等</t>
-  </si>
-  <si>
-    <t>歌曲《春泥》</t>
-  </si>
-  <si>
     <t>歌曲《可不可以》</t>
   </si>
   <si>
@@ -197,7 +191,7 @@
     <t>王娅萱、朱馨彤</t>
   </si>
   <si>
-    <t>舞蹈《寄明月》</t>
+    <t>歌曲《山楂树之恋》</t>
   </si>
   <si>
     <t>胡诗煜、张馨予等</t>
@@ -251,19 +245,43 @@
     <t>小品《碰瓷》</t>
   </si>
   <si>
+    <t>五年一班</t>
+  </si>
+  <si>
+    <t>李昕苒、张雨涵</t>
+  </si>
+  <si>
+    <t>歌曲《小美满》</t>
+  </si>
+  <si>
+    <t>李昕苒、马峻熙</t>
+  </si>
+  <si>
+    <t>歌曲《向上吧少年》</t>
+  </si>
+  <si>
+    <t>杨梦溪、吴依诺等</t>
+  </si>
+  <si>
+    <t>舞蹈《大梦想家》</t>
+  </si>
+  <si>
+    <t>李昕苒、周思涵</t>
+  </si>
+  <si>
+    <t>歌曲《青花》</t>
+  </si>
+  <si>
     <t>五年二班</t>
   </si>
   <si>
-    <t>王美琪、魏雨诺等</t>
+    <t>王美琪、黄雨晴等</t>
   </si>
   <si>
     <t>舞蹈《张灯结彩》</t>
   </si>
   <si>
-    <t>沈佳媛</t>
-  </si>
-  <si>
-    <t>歌曲《宠爱》</t>
+    <t>刘翘楚</t>
   </si>
   <si>
     <t>黄雨晴</t>
@@ -272,7 +290,7 @@
     <t>歌曲《须尽欢》</t>
   </si>
   <si>
-    <t>路智博</t>
+    <t>路智博 柏森</t>
   </si>
   <si>
     <t>魏新雨、胡诗琪等</t>
@@ -281,31 +299,22 @@
     <t>舞蹈《童心向党》</t>
   </si>
   <si>
-    <t>五年一班</t>
-  </si>
-  <si>
-    <t>李昕苒、张雨涵</t>
-  </si>
-  <si>
-    <t>歌曲《小美满》</t>
-  </si>
-  <si>
-    <t>李昕苒、马峻熙</t>
-  </si>
-  <si>
-    <t>歌曲《向上吧少年》</t>
-  </si>
-  <si>
-    <t>杨梦溪、吴依诺等</t>
-  </si>
-  <si>
-    <t>舞蹈《大梦想家》</t>
-  </si>
-  <si>
-    <t>李昕苒、周思涵</t>
-  </si>
-  <si>
-    <t>歌曲《青花》</t>
+    <t>马语晗</t>
+  </si>
+  <si>
+    <t>歌曲《无意之间》</t>
+  </si>
+  <si>
+    <t>张明泽、路智博等</t>
+  </si>
+  <si>
+    <t>合唱《最美的花季》</t>
+  </si>
+  <si>
+    <t>沈绮慧</t>
+  </si>
+  <si>
+    <t>歌曲《只看着我》</t>
   </si>
 </sst>
 </file>
@@ -318,7 +327,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -330,6 +339,12 @@
       <b/>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -496,7 +511,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -506,6 +521,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA9D18E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,168 +868,192 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1321,8 +1384,8 @@
   <sheetPr/>
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -1345,7 +1408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" ht="18.75" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1359,7 +1422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" ht="18.75" spans="1:4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1373,7 +1436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" ht="18.75" spans="1:4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1387,7 +1450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" ht="18.75" spans="1:4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1401,7 +1464,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" ht="18.75" spans="1:4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1415,7 +1478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" ht="18.75" spans="1:4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1423,13 +1486,13 @@
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" ht="18.75" spans="1:4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1443,7 +1506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" ht="18.75" spans="1:4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1457,7 +1520,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" ht="18.75" spans="1:4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1465,13 +1528,13 @@
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" ht="18.75" spans="1:4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1479,13 +1542,13 @@
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" ht="18.75" spans="1:4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1493,13 +1556,13 @@
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" ht="18.75" spans="1:4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1507,13 +1570,13 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" ht="18.75" spans="1:4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1521,13 +1584,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" ht="18.75" spans="1:4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1535,13 +1598,13 @@
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" ht="18.75" spans="1:4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1549,13 +1612,13 @@
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" ht="18.75" spans="1:4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1563,13 +1626,13 @@
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" ht="18.75" spans="1:4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1577,13 +1640,13 @@
         <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" ht="18.75" spans="1:4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1591,27 +1654,27 @@
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" ht="18.75" spans="1:4">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
+      <c r="C20" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" ht="18.75" spans="1:4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1619,417 +1682,427 @@
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" ht="18.75" spans="1:4">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>37</v>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" ht="18.75" spans="1:4">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="B23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" ht="18.75" spans="1:4">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="B24" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="C24" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" ht="18.75" spans="1:4">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="B25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" ht="18.75" spans="1:4">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" ht="18.75" spans="1:4">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="B27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" ht="18.75" spans="1:4">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" ht="18.75" spans="1:4">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="B29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" ht="18.75" spans="1:4">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="B30" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" ht="18.75" spans="1:4">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="B31" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" ht="18.75" spans="1:4">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="B32" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" ht="18.75" spans="1:4">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="B33" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" ht="18.75" spans="1:4">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D34" s="3" t="s">
+      <c r="B34" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="D34" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" ht="18.75" spans="1:4">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="B35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" ht="18.75" spans="1:4">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="B36" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" ht="18.75" spans="1:4">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="B37" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" ht="18.75" spans="1:4">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="B38" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" ht="18.75" spans="1:4">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="B39" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="C39" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" ht="18.75" spans="1:4">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="B40" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" ht="18.75" spans="1:4">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="B41" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" ht="18.75" spans="1:4">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="B42" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" ht="18.75" spans="1:4">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="3" t="s">
+      <c r="B43" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="C43" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" ht="18.75" spans="1:4">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="B44" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" ht="18.75" spans="1:4">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="B45" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" ht="18.75" spans="1:4">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46" s="3" t="s">
+      <c r="B46" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="D46" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" ht="18.75" spans="1:4">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D47" s="3" t="s">
+      <c r="B47" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="10" t="s">
         <v>89</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" s="3" t="s">
+      <c r="B48" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="12" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="49" ht="16.5" spans="3:4">
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="D48" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="50" ht="16.5" spans="3:4">
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
     </row>
     <row r="51" ht="16.5" spans="3:4">
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
     </row>
     <row r="52" ht="16.5" spans="3:4">
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
     </row>
     <row r="53" ht="16.5" spans="3:4">
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
     </row>
     <row r="54" ht="16.5" spans="3:4">
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
     </row>
     <row r="55" ht="16.5" spans="3:4">
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
     </row>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="C1:D55" etc:filterBottomFollowUsedRange="0">
